--- a/软件项目跟踪与管理/Scrum master/sprint2 追踪.xlsx
+++ b/软件项目跟踪与管理/Scrum master/sprint2 追踪.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>徐非凡</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -81,6 +81,14 @@
   <si>
     <t>整合</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源目录没有进行标准化，主要功能完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待登陆注册，和buy</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -532,7 +540,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +624,9 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
@@ -733,7 +743,9 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
